--- a/Barikoi_Reverse_GEO_API_Documentation.xlsx
+++ b/Barikoi_Reverse_GEO_API_Documentation.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\sqa\Barikoi Assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BD6617-4A41-4861-A0D9-595C7DDEFDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Product Name</t>
   </si>
@@ -167,16 +186,10 @@
     <t>1.1.2</t>
   </si>
   <si>
-    <t>If Bangla is set true then address will be in bangali language</t>
-  </si>
-  <si>
     <t>{{Base_URL}}/search/reverse/{{API_KEY}}/geocode?longitude=90.409937&amp;latitude=23.775259&amp;bangla=true</t>
   </si>
   <si>
     <t>bangla = true</t>
-  </si>
-  <si>
-    <t>Address should be in bangla</t>
   </si>
   <si>
     <t xml:space="preserve">       "id": 758526,
@@ -251,105 +264,106 @@
 </t>
   </si>
   <si>
-    <t>BRGA_06</t>
-  </si>
-  <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
-    <t>BRGA_07</t>
-  </si>
-  <si>
-    <t>BRGA_09</t>
+    <t>If Bangla is set true then api response will be in bangali language</t>
+  </si>
+  <si>
+    <t>API response should be in bangla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF0451A5"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -417,75 +431,97 @@
         <bgColor rgb="FFFFFFFE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC6D9F0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
-    <border/>
+  <borders count="11">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -494,202 +530,202 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -879,521 +915,397 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="19.13"/>
-    <col customWidth="1" min="5" max="5" width="19.38"/>
-    <col customWidth="1" min="6" max="6" width="20.38"/>
-    <col customWidth="1" min="7" max="7" width="19.63"/>
-    <col customWidth="1" min="8" max="8" width="17.88"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6">
-        <v>44880.0</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="3">
+        <v>44880</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6">
-        <v>44880.0</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="3">
+        <v>44880</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6">
-        <v>44881.0</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="3">
+        <v>44881</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6">
-        <v>44881.0</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="3">
+        <v>44881</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="17">
-        <f>COUNTIF(I7:I19, "PASS")</f>
+      <c r="J2" s="10">
+        <f>COUNTIF(I7:I11, "PASS")</f>
         <v>4</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21">
-        <f>COUNTIF(I7:I19, "Fail")</f>
+      <c r="J3" s="13">
+        <f>COUNTIF(I7:I11, "Fail")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="4" ht="23.25" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="15" t="s">
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="24">
-        <f>COUNTIF(I7:I19, "WARNING")</f>
+      <c r="J4" s="15">
+        <f>COUNTIF(I7:I11, "WARNING")</f>
         <v>0</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="10"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="6"/>
     </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="20" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="17">
         <f>SUM(J2:J3:J4)</f>
         <v>4</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
     </row>
-    <row r="6" ht="42.75" customHeight="1">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
     </row>
-    <row r="7" ht="64.5" customHeight="1">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="43">
-        <v>44881.0</v>
-      </c>
-      <c r="M7" s="34"/>
+      <c r="L7" s="30">
+        <v>44881</v>
+      </c>
+      <c r="M7" s="22"/>
     </row>
-    <row r="8">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:14" ht="104" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="E8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="G8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="33">
+        <v>44881</v>
+      </c>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="F9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="48">
-        <v>44881.0</v>
-      </c>
-      <c r="M8" s="34"/>
+      <c r="J9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="33">
+        <v>44881</v>
+      </c>
+      <c r="M9" s="22"/>
     </row>
-    <row r="9" ht="87.0" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="44" t="s">
+    <row r="10" spans="1:14" ht="96" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="38" t="s">
+      <c r="F10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="48">
-        <v>44881.0</v>
-      </c>
-      <c r="M9" s="34"/>
+      <c r="J10" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="33">
+        <v>44881</v>
+      </c>
+      <c r="M10" s="22"/>
     </row>
-    <row r="10">
-      <c r="A10" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="48">
-        <v>44881.0</v>
-      </c>
-      <c r="M10" s="34"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" ht="120.0" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" ht="129.0" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>